--- a/Energia/Model/t1_confection/A2_Structure_Lists.xlsx
+++ b/Energia/Model/t1_confection/A2_Structure_Lists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
   <si>
     <t>Year</t>
   </si>
@@ -1207,25 +1207,19 @@
     <t>DEMTRN_NOMOT</t>
   </si>
   <si>
+    <t>Congestion</t>
+  </si>
+  <si>
+    <t>Accidents</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
     <t>CO2_fugitivas</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Accidents</t>
-  </si>
-  <si>
-    <t>Congestion</t>
-  </si>
-  <si>
-    <t>CO2_scc</t>
-  </si>
-  <si>
-    <t>CO2_fugitivas_scc</t>
-  </si>
-  <si>
-    <t>CO2</t>
   </si>
   <si>
     <t>ECU</t>
@@ -1635,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1704,9 +1698,6 @@
       <c r="D7" t="s">
         <v>272</v>
       </c>
-      <c r="E7" t="s">
-        <v>402</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
@@ -1717,9 +1708,6 @@
       </c>
       <c r="D8" t="s">
         <v>273</v>
-      </c>
-      <c r="E8" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/Energia/Model/t1_confection/A2_Structure_Lists.xlsx
+++ b/Energia/Model/t1_confection/A2_Structure_Lists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
   <si>
     <t>Year</t>
   </si>
@@ -325,6 +325,9 @@
     <t>CENGASGSL</t>
   </si>
   <si>
+    <t>PP_TPP</t>
+  </si>
+  <si>
     <t>T5ELEAGR</t>
   </si>
   <si>
@@ -898,6 +901,9 @@
     <t>E1_BIODSL</t>
   </si>
   <si>
+    <t>E1_ELE_FF</t>
+  </si>
+  <si>
     <t>E3_HYD</t>
   </si>
   <si>
@@ -1207,19 +1213,19 @@
     <t>DEMTRN_NOMOT</t>
   </si>
   <si>
+    <t>CO2_fugitivas</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
     <t>Congestion</t>
   </si>
   <si>
     <t>Accidents</t>
   </si>
   <si>
-    <t>Health</t>
-  </si>
-  <si>
     <t>CO2</t>
-  </si>
-  <si>
-    <t>CO2_fugitivas</t>
   </si>
   <si>
     <t>ECU</t>
@@ -1580,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G260"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1617,19 +1623,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1640,10 +1646,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1654,10 +1660,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1668,10 +1674,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1682,10 +1688,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1696,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1707,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1718,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1729,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1740,7 +1746,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1751,7 +1757,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1762,7 +1768,7 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1773,7 +1779,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1784,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1795,7 +1801,7 @@
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1806,7 +1812,7 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1817,7 +1823,7 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1828,7 +1834,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1839,7 +1845,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1850,7 +1856,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1861,7 +1867,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1872,7 +1878,7 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1883,7 +1889,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1894,7 +1900,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1905,7 +1911,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1916,7 +1922,7 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1927,7 +1933,7 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1938,7 +1944,7 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1949,7 +1955,7 @@
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1960,7 +1966,7 @@
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1971,7 +1977,7 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1982,7 +1988,7 @@
         <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1993,7 +1999,7 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2004,7 +2010,7 @@
         <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2015,7 +2021,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2026,7 +2032,7 @@
         <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2037,7 +2043,7 @@
         <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2048,7 +2054,7 @@
         <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2059,7 +2065,7 @@
         <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2070,7 +2076,7 @@
         <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2081,7 +2087,7 @@
         <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2092,7 +2098,7 @@
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2103,7 +2109,7 @@
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2114,7 +2120,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2125,7 +2131,7 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2136,7 +2142,7 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2147,7 +2153,7 @@
         <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2158,7 +2164,7 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2169,7 +2175,7 @@
         <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2180,7 +2186,7 @@
         <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2191,7 +2197,7 @@
         <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2202,7 +2208,7 @@
         <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2213,7 +2219,7 @@
         <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2221,7 +2227,7 @@
         <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2229,7 +2235,7 @@
         <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2237,7 +2243,7 @@
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2245,7 +2251,7 @@
         <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2253,7 +2259,7 @@
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2261,7 +2267,7 @@
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2269,7 +2275,7 @@
         <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2277,7 +2283,7 @@
         <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2285,7 +2291,7 @@
         <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2293,7 +2299,7 @@
         <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -2301,7 +2307,7 @@
         <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -2309,7 +2315,7 @@
         <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -2317,7 +2323,7 @@
         <v>72</v>
       </c>
       <c r="D67" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -2325,7 +2331,7 @@
         <v>73</v>
       </c>
       <c r="D68" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -2333,7 +2339,7 @@
         <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -2341,7 +2347,7 @@
         <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -2349,7 +2355,7 @@
         <v>76</v>
       </c>
       <c r="D71" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -2357,7 +2363,7 @@
         <v>77</v>
       </c>
       <c r="D72" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -2365,7 +2371,7 @@
         <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="2:4">
@@ -2373,7 +2379,7 @@
         <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="2:4">
@@ -2381,7 +2387,7 @@
         <v>80</v>
       </c>
       <c r="D75" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -2389,7 +2395,7 @@
         <v>81</v>
       </c>
       <c r="D76" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -2397,7 +2403,7 @@
         <v>82</v>
       </c>
       <c r="D77" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="2:4">
@@ -2405,7 +2411,7 @@
         <v>83</v>
       </c>
       <c r="D78" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -2413,7 +2419,7 @@
         <v>84</v>
       </c>
       <c r="D79" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" spans="2:4">
@@ -2421,7 +2427,7 @@
         <v>85</v>
       </c>
       <c r="D80" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="2:4">
@@ -2429,7 +2435,7 @@
         <v>86</v>
       </c>
       <c r="D81" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="2:4">
@@ -2437,7 +2443,7 @@
         <v>87</v>
       </c>
       <c r="D82" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="83" spans="2:4">
@@ -2445,7 +2451,7 @@
         <v>88</v>
       </c>
       <c r="D83" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="2:4">
@@ -2453,7 +2459,7 @@
         <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="2:4">
@@ -2461,7 +2467,7 @@
         <v>90</v>
       </c>
       <c r="D85" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="2:4">
@@ -2469,7 +2475,7 @@
         <v>91</v>
       </c>
       <c r="D86" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="2:4">
@@ -2477,7 +2483,7 @@
         <v>92</v>
       </c>
       <c r="D87" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="2:4">
@@ -2485,7 +2491,7 @@
         <v>93</v>
       </c>
       <c r="D88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="2:4">
@@ -2493,7 +2499,7 @@
         <v>94</v>
       </c>
       <c r="D89" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="2:4">
@@ -2501,7 +2507,7 @@
         <v>95</v>
       </c>
       <c r="D90" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="91" spans="2:4">
@@ -2509,7 +2515,7 @@
         <v>96</v>
       </c>
       <c r="D91" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="2:4">
@@ -2517,7 +2523,7 @@
         <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="2:4">
@@ -2525,7 +2531,7 @@
         <v>98</v>
       </c>
       <c r="D93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="94" spans="2:4">
@@ -2533,7 +2539,7 @@
         <v>99</v>
       </c>
       <c r="D94" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="2:4">
@@ -2541,7 +2547,7 @@
         <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="2:4">
@@ -2549,7 +2555,7 @@
         <v>101</v>
       </c>
       <c r="D96" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="97" spans="2:4">
@@ -2557,7 +2563,7 @@
         <v>102</v>
       </c>
       <c r="D97" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="98" spans="2:4">
@@ -2565,7 +2571,7 @@
         <v>103</v>
       </c>
       <c r="D98" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="2:4">
@@ -2573,7 +2579,7 @@
         <v>104</v>
       </c>
       <c r="D99" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100" spans="2:4">
@@ -2581,7 +2587,7 @@
         <v>105</v>
       </c>
       <c r="D100" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -2589,7 +2595,7 @@
         <v>106</v>
       </c>
       <c r="D101" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102" spans="2:4">
@@ -2597,7 +2603,7 @@
         <v>107</v>
       </c>
       <c r="D102" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="2:4">
@@ -2605,7 +2611,7 @@
         <v>108</v>
       </c>
       <c r="D103" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="2:4">
@@ -2613,7 +2619,7 @@
         <v>109</v>
       </c>
       <c r="D104" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="2:4">
@@ -2621,7 +2627,7 @@
         <v>110</v>
       </c>
       <c r="D105" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="2:4">
@@ -2629,7 +2635,7 @@
         <v>111</v>
       </c>
       <c r="D106" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="2:4">
@@ -2637,7 +2643,7 @@
         <v>112</v>
       </c>
       <c r="D107" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="2:4">
@@ -2645,7 +2651,7 @@
         <v>113</v>
       </c>
       <c r="D108" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="2:4">
@@ -2653,7 +2659,7 @@
         <v>114</v>
       </c>
       <c r="D109" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="2:4">
@@ -2661,7 +2667,7 @@
         <v>115</v>
       </c>
       <c r="D110" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="2:4">
@@ -2669,7 +2675,7 @@
         <v>116</v>
       </c>
       <c r="D111" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="2:4">
@@ -2677,7 +2683,7 @@
         <v>117</v>
       </c>
       <c r="D112" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="2:4">
@@ -2685,7 +2691,7 @@
         <v>118</v>
       </c>
       <c r="D113" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="2:4">
@@ -2693,7 +2699,7 @@
         <v>119</v>
       </c>
       <c r="D114" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="2:4">
@@ -2701,7 +2707,7 @@
         <v>120</v>
       </c>
       <c r="D115" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="2:4">
@@ -2709,7 +2715,7 @@
         <v>121</v>
       </c>
       <c r="D116" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="2:4">
@@ -2717,7 +2723,7 @@
         <v>122</v>
       </c>
       <c r="D117" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="2:4">
@@ -2725,7 +2731,7 @@
         <v>123</v>
       </c>
       <c r="D118" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="2:4">
@@ -2733,7 +2739,7 @@
         <v>124</v>
       </c>
       <c r="D119" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="2:4">
@@ -2741,7 +2747,7 @@
         <v>125</v>
       </c>
       <c r="D120" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="2:4">
@@ -2749,7 +2755,7 @@
         <v>126</v>
       </c>
       <c r="D121" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="2:4">
@@ -2757,7 +2763,7 @@
         <v>127</v>
       </c>
       <c r="D122" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="2:4">
@@ -2765,7 +2771,7 @@
         <v>128</v>
       </c>
       <c r="D123" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="124" spans="2:4">
@@ -2773,7 +2779,7 @@
         <v>129</v>
       </c>
       <c r="D124" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="125" spans="2:4">
@@ -2781,7 +2787,7 @@
         <v>130</v>
       </c>
       <c r="D125" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="2:4">
@@ -2789,7 +2795,7 @@
         <v>131</v>
       </c>
       <c r="D126" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="127" spans="2:4">
@@ -2797,7 +2803,7 @@
         <v>132</v>
       </c>
       <c r="D127" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="128" spans="2:4">
@@ -2805,7 +2811,7 @@
         <v>133</v>
       </c>
       <c r="D128" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="129" spans="2:4">
@@ -2813,7 +2819,7 @@
         <v>134</v>
       </c>
       <c r="D129" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" spans="2:4">
@@ -2821,7 +2827,7 @@
         <v>135</v>
       </c>
       <c r="D130" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="131" spans="2:4">
@@ -2829,13 +2835,16 @@
         <v>136</v>
       </c>
       <c r="D131" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="132" spans="2:4">
       <c r="B132" t="s">
         <v>137</v>
       </c>
+      <c r="D132" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="133" spans="2:4">
       <c r="B133" t="s">
@@ -3475,6 +3484,11 @@
     <row r="260" spans="2:2">
       <c r="B260" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/Energia/Model/t1_confection/A2_Structure_Lists.xlsx
+++ b/Energia/Model/t1_confection/A2_Structure_Lists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <si>
     <t>Year</t>
   </si>
@@ -1213,19 +1213,25 @@
     <t>DEMTRN_NOMOT</t>
   </si>
   <si>
+    <t>Accidents</t>
+  </si>
+  <si>
     <t>CO2_fugitivas</t>
   </si>
   <si>
     <t>Health</t>
   </si>
   <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CO2_fugitivas_scc</t>
+  </si>
+  <si>
+    <t>CO2_scc</t>
+  </si>
+  <si>
     <t>Congestion</t>
-  </si>
-  <si>
-    <t>Accidents</t>
-  </si>
-  <si>
-    <t>CO2</t>
   </si>
   <si>
     <t>ECU</t>
@@ -1635,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1704,6 +1710,9 @@
       <c r="D7" t="s">
         <v>273</v>
       </c>
+      <c r="E7" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
@@ -1714,6 +1723,9 @@
       </c>
       <c r="D8" t="s">
         <v>274</v>
+      </c>
+      <c r="E8" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:7">
